--- a/excel/sample/message_20191205.xlsx
+++ b/excel/sample/message_20191205.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/code/guangzhou/static/excel/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D737D0-3301-BC46-8BF5-EAE11D5D86F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF1112D-842B-3745-9C65-E858EF8FA8FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34300" yWindow="1640" windowWidth="33620" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33840" yWindow="1820" windowWidth="34860" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>姓名</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>http://1.hsh162.cn/jiamengwap/senhua/?sid10110650095&amp;bd_vid=10329567108546890449</t>
+  </si>
+  <si>
+    <t>计划名称</t>
+  </si>
+  <si>
+    <t>众尊-XR2-20013663</t>
   </si>
 </sst>
 </file>
@@ -469,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E13"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -480,19 +486,20 @@
     <col min="1" max="1" width="10.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.1640625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -503,25 +510,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -532,25 +542,28 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -561,21 +574,24 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -583,10 +599,10 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{A2EF82F1-A57B-244C-894E-BC1753A4ADFC}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{9C6D45F0-4ED7-6545-BBC8-311FED5DDB33}"/>
-    <hyperlink ref="H2" r:id="rId3" xr:uid="{BA5F5336-F442-654D-A3D4-7A20891F89A2}"/>
-    <hyperlink ref="H3" r:id="rId4" xr:uid="{7B9AF0E8-207C-3C49-BA5E-FEC5BEA7E4FD}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{A2EF82F1-A57B-244C-894E-BC1753A4ADFC}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{9C6D45F0-4ED7-6545-BBC8-311FED5DDB33}"/>
+    <hyperlink ref="I2" r:id="rId3" xr:uid="{BA5F5336-F442-654D-A3D4-7A20891F89A2}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{7B9AF0E8-207C-3C49-BA5E-FEC5BEA7E4FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
